--- a/library/Library_hbrown_08.15.19.xlsx
+++ b/library/Library_hbrown_08.15.19.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">GACCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -159,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -200,6 +200,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -249,7 +256,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +278,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +310,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L27"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,10 +401,11 @@
       <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6" t="b">
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -442,10 +454,11 @@
       <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6" t="b">
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -480,10 +493,11 @@
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="b">
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -518,10 +532,11 @@
       <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="b">
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -556,10 +571,11 @@
       <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="6" t="b">
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -594,10 +610,11 @@
       <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="6" t="b">
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -632,10 +649,11 @@
       <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6" t="b">
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -670,10 +688,11 @@
       <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="6" t="b">
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -708,10 +727,11 @@
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="6" t="b">
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -746,10 +766,11 @@
       <c r="J11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="6" t="b">
+      <c r="K11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -784,10 +805,11 @@
       <c r="J12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="6" t="b">
+      <c r="K12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -822,10 +844,11 @@
       <c r="J13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="6" t="b">
+      <c r="K13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -860,10 +883,11 @@
       <c r="J14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="6" t="b">
+      <c r="K14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -898,10 +922,11 @@
       <c r="J15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="6" t="b">
+      <c r="K15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -936,10 +961,11 @@
       <c r="J16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="6" t="b">
+      <c r="K16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -974,10 +1000,11 @@
       <c r="J17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="6" t="b">
+      <c r="K17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1012,10 +1039,11 @@
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="6" t="b">
+      <c r="K18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1050,10 +1078,11 @@
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="6" t="b">
+      <c r="K19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1088,10 +1117,11 @@
       <c r="J20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="6" t="b">
+      <c r="K20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1126,10 +1156,11 @@
       <c r="J21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="6" t="b">
+      <c r="K21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1164,10 +1195,11 @@
       <c r="J22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="6" t="b">
+      <c r="K22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1202,10 +1234,11 @@
       <c r="J23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="6" t="b">
+      <c r="K23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1240,10 +1273,11 @@
       <c r="J24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="6" t="b">
+      <c r="K24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1278,10 +1312,11 @@
       <c r="J25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="6" t="b">
+      <c r="K25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1316,10 +1351,11 @@
       <c r="J26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="6" t="b">
+      <c r="K26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1354,10 +1390,11 @@
       <c r="J27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="6" t="b">
+      <c r="K27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_hbrown_08.15.19.xlsx
+++ b/library/Library_hbrown_08.15.19.xlsx
@@ -310,7 +310,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K27"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,8 +404,7 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -457,8 +456,7 @@
       <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -496,8 +494,7 @@
       <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -535,8 +532,7 @@
       <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -574,8 +570,7 @@
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -613,8 +608,7 @@
       <c r="K7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -652,8 +646,7 @@
       <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -691,8 +684,7 @@
       <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -730,8 +722,7 @@
       <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -769,8 +760,7 @@
       <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -808,8 +798,7 @@
       <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -847,8 +836,7 @@
       <c r="K13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -886,8 +874,7 @@
       <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -925,8 +912,7 @@
       <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -964,8 +950,7 @@
       <c r="K16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1003,8 +988,7 @@
       <c r="K17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1042,8 +1026,7 @@
       <c r="K18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1081,8 +1064,7 @@
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1120,8 +1102,7 @@
       <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L20" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1159,8 +1140,7 @@
       <c r="K21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L21" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1198,8 +1178,7 @@
       <c r="K22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L22" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1237,8 +1216,7 @@
       <c r="K23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L23" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1276,8 +1254,7 @@
       <c r="K24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L24" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1315,8 +1292,7 @@
       <c r="K25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L25" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1354,8 +1330,7 @@
       <c r="K26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L26" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1393,8 +1368,7 @@
       <c r="K27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/Library_hbrown_08.15.19.xlsx
+++ b/library/Library_hbrown_08.15.19.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">GACCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -310,7 +310,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L27"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,7 +404,8 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="b">
+      <c r="L2" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -456,7 +457,8 @@
       <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7" t="b">
+      <c r="L3" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -494,7 +496,8 @@
       <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="b">
+      <c r="L4" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -532,7 +535,8 @@
       <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="b">
+      <c r="L5" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -570,7 +574,8 @@
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="b">
+      <c r="L6" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -608,7 +613,8 @@
       <c r="K7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="7" t="b">
+      <c r="L7" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -646,7 +652,8 @@
       <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="b">
+      <c r="L8" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -684,7 +691,8 @@
       <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7" t="b">
+      <c r="L9" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -722,7 +730,8 @@
       <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="7" t="b">
+      <c r="L10" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -760,7 +769,8 @@
       <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="b">
+      <c r="L11" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -798,7 +808,8 @@
       <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="7" t="b">
+      <c r="L12" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -836,7 +847,8 @@
       <c r="K13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="7" t="b">
+      <c r="L13" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -874,7 +886,8 @@
       <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="b">
+      <c r="L14" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -912,7 +925,8 @@
       <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7" t="b">
+      <c r="L15" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -950,7 +964,8 @@
       <c r="K16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="7" t="b">
+      <c r="L16" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -988,7 +1003,8 @@
       <c r="K17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="b">
+      <c r="L17" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1026,7 +1042,8 @@
       <c r="K18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="7" t="b">
+      <c r="L18" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1081,8 @@
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="7" t="b">
+      <c r="L19" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1102,7 +1120,8 @@
       <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="b">
+      <c r="L20" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1140,7 +1159,8 @@
       <c r="K21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="7" t="b">
+      <c r="L21" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1178,7 +1198,8 @@
       <c r="K22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="7" t="b">
+      <c r="L22" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1216,7 +1237,8 @@
       <c r="K23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="7" t="b">
+      <c r="L23" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1254,7 +1276,8 @@
       <c r="K24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="7" t="b">
+      <c r="L24" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1315,8 @@
       <c r="K25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="7" t="b">
+      <c r="L25" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1330,7 +1354,8 @@
       <c r="K26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="7" t="b">
+      <c r="L26" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1368,7 +1393,8 @@
       <c r="K27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="7" t="b">
+      <c r="L27" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_hbrown_08.15.19.xlsx
+++ b/library/Library_hbrown_08.15.19.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F0044E-8A8F-0743-B6C9-82891CF02ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,167 +31,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">s2cDNADate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNAPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s2cDNASampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index1Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roboticLibraryPrep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.15.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGAGGTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIC_Index2_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GACCTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTTAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGACAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACCTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCGAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACTCTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGACTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTGGAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGATTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCAGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCATCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAACAAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGGCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTAACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTCCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGGTGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTGTCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAGTACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACAGATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTCAATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAATGCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACGCGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGAGTCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCAACTG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
+  <si>
+    <t>s2cDNADate</t>
+  </si>
+  <si>
+    <t>s2cDNAPreparer</t>
+  </si>
+  <si>
+    <t>s2cDNASampleNumber</t>
+  </si>
+  <si>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>index1Name</t>
+  </si>
+  <si>
+    <t>index1Sequence</t>
+  </si>
+  <si>
+    <t>index2Name</t>
+  </si>
+  <si>
+    <t>index2Sequence</t>
+  </si>
+  <si>
+    <t>libraryProtocol</t>
+  </si>
+  <si>
+    <t>roboticLibraryPrep</t>
+  </si>
+  <si>
+    <t>08.15.19</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>TGAGGTT</t>
+  </si>
+  <si>
+    <t>SIC_Index2_06</t>
+  </si>
+  <si>
+    <t>GACCTT</t>
+  </si>
+  <si>
+    <t>E7420L</t>
+  </si>
+  <si>
+    <t>GCTTAGA</t>
+  </si>
+  <si>
+    <t>ATGACAG</t>
+  </si>
+  <si>
+    <t>CACCTCC</t>
+  </si>
+  <si>
+    <t>ATCGAGC</t>
+  </si>
+  <si>
+    <t>TACTCTA</t>
+  </si>
+  <si>
+    <t>AGACTGA</t>
+  </si>
+  <si>
+    <t>CTTGGAA</t>
+  </si>
+  <si>
+    <t>CCGATTA</t>
+  </si>
+  <si>
+    <t>GGCAGCG</t>
+  </si>
+  <si>
+    <t>CCATCAT</t>
+  </si>
+  <si>
+    <t>TAACAAG</t>
+  </si>
+  <si>
+    <t>GAGGCGT</t>
+  </si>
+  <si>
+    <t>TTTAACT</t>
+  </si>
+  <si>
+    <t>GGTCCTC</t>
+  </si>
+  <si>
+    <t>CGGTGGC</t>
+  </si>
+  <si>
+    <t>ACTGTCG</t>
+  </si>
+  <si>
+    <t>GTATTTG</t>
+  </si>
+  <si>
+    <t>GAGTACG</t>
+  </si>
+  <si>
+    <t>ACAGATA</t>
+  </si>
+  <si>
+    <t>CTCAATG</t>
+  </si>
+  <si>
+    <t>AAATGCA</t>
+  </si>
+  <si>
+    <t>ACGCGGG</t>
+  </si>
+  <si>
+    <t>GGAGTCC</t>
+  </si>
+  <si>
+    <t>CGTCGCT</t>
+  </si>
+  <si>
+    <t>TCAACTG</t>
+  </si>
+  <si>
+    <t>Index1_1</t>
+  </si>
+  <si>
+    <t>Index1_2</t>
+  </si>
+  <si>
+    <t>Index1_3</t>
+  </si>
+  <si>
+    <t>Index1_4</t>
+  </si>
+  <si>
+    <t>Index1_5</t>
+  </si>
+  <si>
+    <t>Index1_6</t>
+  </si>
+  <si>
+    <t>Index1_7</t>
+  </si>
+  <si>
+    <t>Index1_8</t>
+  </si>
+  <si>
+    <t>Index1_9</t>
+  </si>
+  <si>
+    <t>Index1_10</t>
+  </si>
+  <si>
+    <t>Index1_11</t>
+  </si>
+  <si>
+    <t>Index1_12</t>
+  </si>
+  <si>
+    <t>Index1_13</t>
+  </si>
+  <si>
+    <t>Index1_14</t>
+  </si>
+  <si>
+    <t>Index1_15</t>
+  </si>
+  <si>
+    <t>Index1_16</t>
+  </si>
+  <si>
+    <t>Index1_17</t>
+  </si>
+  <si>
+    <t>Index1_18</t>
+  </si>
+  <si>
+    <t>Index1_19</t>
+  </si>
+  <si>
+    <t>Index1_20</t>
+  </si>
+  <si>
+    <t>Index1_21</t>
+  </si>
+  <si>
+    <t>Index1_22</t>
+  </si>
+  <si>
+    <t>Index1_23</t>
+  </si>
+  <si>
+    <t>Index1_24</t>
+  </si>
+  <si>
+    <t>Index1_25</t>
+  </si>
+  <si>
+    <t>Index1_26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,7 +279,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -219,7 +297,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -227,98 +305,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,14 +698,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -386,11 +714,11 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -404,8 +732,8 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -423,14 +751,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -439,11 +767,11 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
@@ -457,19 +785,19 @@
       <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -478,11 +806,11 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>3</v>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -496,19 +824,19 @@
       <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -517,11 +845,11 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
@@ -535,19 +863,19 @@
       <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -556,11 +884,11 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>5</v>
+      <c r="G6" t="s">
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
@@ -574,19 +902,19 @@
       <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -595,11 +923,11 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>6</v>
+      <c r="G7" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>22</v>
@@ -613,19 +941,19 @@
       <c r="K7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -634,11 +962,11 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>23</v>
@@ -652,19 +980,19 @@
       <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -673,11 +1001,11 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>8</v>
+      <c r="G9" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>24</v>
@@ -691,19 +1019,19 @@
       <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -712,11 +1040,11 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>9</v>
+      <c r="G10" t="s">
+        <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>25</v>
@@ -730,19 +1058,19 @@
       <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -751,11 +1079,11 @@
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -769,19 +1097,19 @@
       <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -790,11 +1118,11 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
@@ -808,19 +1136,19 @@
       <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -829,11 +1157,11 @@
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>12</v>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>28</v>
@@ -847,19 +1175,19 @@
       <c r="K13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -868,11 +1196,11 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>13</v>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>29</v>
@@ -886,19 +1214,19 @@
       <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -907,11 +1235,11 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>14</v>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>30</v>
@@ -925,19 +1253,19 @@
       <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -946,11 +1274,11 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>15</v>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>31</v>
@@ -964,19 +1292,19 @@
       <c r="K16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -985,11 +1313,11 @@
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>16</v>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>32</v>
@@ -1003,19 +1331,19 @@
       <c r="K17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1024,11 +1352,11 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>17</v>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
@@ -1042,19 +1370,19 @@
       <c r="K18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1063,11 +1391,11 @@
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <v>18</v>
+      <c r="G19" t="s">
+        <v>60</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>34</v>
@@ -1081,19 +1409,19 @@
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1102,11 +1430,11 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>19</v>
+      <c r="G20" t="s">
+        <v>61</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>35</v>
@@ -1120,19 +1448,19 @@
       <c r="K20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1141,11 +1469,11 @@
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>20</v>
+      <c r="G21" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>36</v>
@@ -1159,19 +1487,19 @@
       <c r="K21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1180,11 +1508,11 @@
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>21</v>
+      <c r="G22" t="s">
+        <v>63</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>37</v>
@@ -1198,19 +1526,19 @@
       <c r="K22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1219,11 +1547,11 @@
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>22</v>
+      <c r="G23" t="s">
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>38</v>
@@ -1237,19 +1565,19 @@
       <c r="K23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1258,11 +1586,11 @@
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>23</v>
+      <c r="G24" t="s">
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>39</v>
@@ -1276,19 +1604,19 @@
       <c r="K24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1297,11 +1625,11 @@
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>24</v>
+      <c r="G25" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -1315,19 +1643,19 @@
       <c r="K25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1336,11 +1664,11 @@
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>25</v>
+      <c r="G26" t="s">
+        <v>67</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>41</v>
@@ -1354,19 +1682,19 @@
       <c r="K26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1375,11 +1703,11 @@
       <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>26</v>
+      <c r="G27" t="s">
+        <v>68</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>42</v>
@@ -1393,18 +1721,14 @@
       <c r="K27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/library/Library_hbrown_08.15.19.xlsx
+++ b/library/Library_hbrown_08.15.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F0044E-8A8F-0743-B6C9-82891CF02ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D1632-94A8-C24C-8EDF-AEC21C6857DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>TGAGGTT</t>
   </si>
   <si>
-    <t>SIC_Index2_06</t>
-  </si>
-  <si>
     <t>GACCTT</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>Index1_26</t>
+  </si>
+  <si>
+    <t>universal</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G27"/>
+      <selection activeCell="I3" sqref="I3:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,19 +718,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="7" t="b">
         <f>FALSE()</f>
@@ -771,19 +771,19 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="7" t="b">
         <f>FALSE()</f>
@@ -810,19 +810,19 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="7" t="b">
         <f>FALSE()</f>
@@ -849,19 +849,19 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7" t="b">
         <f>FALSE()</f>
@@ -888,19 +888,19 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="b">
         <f>FALSE()</f>
@@ -927,19 +927,19 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="b">
         <f>FALSE()</f>
@@ -966,19 +966,19 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="b">
         <f>FALSE()</f>
@@ -1005,19 +1005,19 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="b">
         <f>FALSE()</f>
@@ -1044,19 +1044,19 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="b">
         <f>FALSE()</f>
@@ -1083,19 +1083,19 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="b">
         <f>FALSE()</f>
@@ -1122,19 +1122,19 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="b">
         <f>FALSE()</f>
@@ -1161,19 +1161,19 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7" t="b">
         <f>FALSE()</f>
@@ -1200,19 +1200,19 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="b">
         <f>FALSE()</f>
@@ -1239,19 +1239,19 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="b">
         <f>FALSE()</f>
@@ -1278,19 +1278,19 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="b">
         <f>FALSE()</f>
@@ -1317,19 +1317,19 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="b">
         <f>FALSE()</f>
@@ -1356,19 +1356,19 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="b">
         <f>FALSE()</f>
@@ -1395,19 +1395,19 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="7" t="b">
         <f>FALSE()</f>
@@ -1434,19 +1434,19 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7" t="b">
         <f>FALSE()</f>
@@ -1473,19 +1473,19 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="b">
         <f>FALSE()</f>
@@ -1512,19 +1512,19 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="7" t="b">
         <f>FALSE()</f>
@@ -1551,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="b">
         <f>FALSE()</f>
@@ -1590,19 +1590,19 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" s="7" t="b">
         <f>FALSE()</f>
@@ -1629,19 +1629,19 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="7" t="b">
         <f>FALSE()</f>
@@ -1668,19 +1668,19 @@
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="7" t="b">
         <f>FALSE()</f>
@@ -1707,19 +1707,19 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="7" t="b">
         <f>FALSE()</f>
